--- a/OnBoard/output/trust/catch/Catch_Trust_57.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_57.xlsx
@@ -2294,7 +2294,7 @@
         <v>0.036</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I47">
         <v>20.98234375</v>
@@ -2950,7 +2950,7 @@
         <v>0.033</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I63">
         <v>20.98234375</v>
@@ -3114,7 +3114,7 @@
         <v>0.616</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I67">
         <v>20.98234375</v>
@@ -3360,7 +3360,7 @@
         <v>0.977</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I73">
         <v>20.98234375</v>
